--- a/src/main/resources/templates/excel/Excel_File_For_Testing.xlsx
+++ b/src/main/resources/templates/excel/Excel_File_For_Testing.xlsx
@@ -11,7 +11,8 @@
     <sheet name="STRING" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="NUMERIC" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="DATE" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="書式なし" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="BOOLEAN" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="書式なし" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t xml:space="preserve">TEST用のエクセルファイルです。</t>
   </si>
@@ -77,13 +78,25 @@
   </si>
   <si>
     <t xml:space="preserve">2021/12/33 13:55:72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">論理値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
@@ -91,6 +104,7 @@
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="170" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="171" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -180,7 +194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -230,6 +244,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,7 +335,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -385,8 +403,8 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,13 +492,13 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.52"/>
@@ -555,16 +573,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.52"/>
@@ -598,10 +682,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="14" t="n">
         <v>20211213</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="14" t="n">
         <v>135612</v>
       </c>
     </row>
